--- a/TestCases/Data/CSV/pairs1.xlsx
+++ b/TestCases/Data/CSV/pairs1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S10</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S11</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S12</t>
         </is>
       </c>
     </row>
@@ -498,11 +498,7 @@
           <t>D5</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -510,11 +506,7 @@
           <t>D6</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -522,7 +514,11 @@
           <t>D7</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>S18</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -532,7 +528,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S18</t>
         </is>
       </c>
     </row>
@@ -542,9 +538,73 @@
           <t>D9</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>S9</t>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>S32</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>D14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>D15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>D16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>S20</t>
         </is>
       </c>
     </row>
